--- a/src/test/resources/exceldata.xlsx
+++ b/src/test/resources/exceldata.xlsx
@@ -3,21 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeep\Desktop\demo_webdriverIO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B03E1-6D63-408C-A01A-EA96CE7BF6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{96418D96-9C0D-4F8A-9654-A136667D54DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B44E21A9-6197-42F7-AD19-4274EC424166}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19460" windowHeight="11060" activeTab="1" xr2:uid="{B44E21A9-6197-42F7-AD19-4274EC424166}"/>
   </bookViews>
   <sheets>
     <sheet name="xyz" sheetId="1" r:id="rId1"/>
+    <sheet name="dataprovider" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K10"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>URL</t>
   </si>
@@ -58,14 +55,49 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>industryType</t>
+  </si>
+  <si>
+    <t>tyss</t>
+  </si>
+  <si>
+    <t>infosis</t>
+  </si>
+  <si>
+    <t>wipro</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>mahindra</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Machinery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,6 +156,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,18 +474,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325DC69C-AADB-49E9-A566-EF5290753868}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.08984375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -474,7 +513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,4 +531,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D023F9-EBC7-4E5F-A046-18CCF4B409B1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>